--- a/data/georgia_census/qvemo-qartli/rustavi/population_total.xlsx
+++ b/data/georgia_census/qvemo-qartli/rustavi/population_total.xlsx
@@ -1304,13 +1304,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0181253C-9E3C-454D-938D-D75D353261FA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B8DD486-B139-441E-9581-8FE7A70C4789}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3BE9309-CB3F-43CD-B0ED-ED741B6677A8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEE49278-16BC-4A72-890D-44EA80056E63}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B94FE2D-5C98-483A-89FD-86B4A5FBA0C3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D1E7DB0-6108-47C1-83FA-F6A596E623FC}"/>
 </file>